--- a/plan/道具.xlsx
+++ b/plan/道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF610579-EE55-49CC-A057-F7218D111319}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84CEB513-9E28-4AC7-BC78-0FFFD1175BAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>拐杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +30,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内有红色光芒的宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装着黄色光芒的透明罐子</t>
-  </si>
-  <si>
     <t>海螺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明罐子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +391,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -395,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -411,37 +436,55 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
